--- a/UnitOps/BR_all_data_copy2.xlsx
+++ b/UnitOps/BR_all_data_copy2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Documents\Python Scripts\CBE\UnitOps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surya\Documents\Python Scripts\CBE\CBE\UnitOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D6CA0-4397-440A-A7D8-D0196E5EABAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C3BE6-D5C8-4B10-B724-2CC8D0055CE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D770C720-2859-4E1E-8A69-264879DCE44D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Dilution Factor</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>minutes</t>
+  </si>
+  <si>
+    <t>rsq</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116F5A46-06D0-4726-942C-B4B56F1CFA31}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,96 +852,155 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <f>0.931^2</f>
+        <v>0.86676100000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f>0.737^2</f>
+        <v>0.54316900000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f>0.783^2</f>
+        <v>0.613089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>241.22293408690399</v>
+      </c>
+      <c r="F27">
+        <f>E27-200</f>
+        <v>41.22293408690399</v>
+      </c>
+      <c r="G27">
+        <f>0.713^2</f>
+        <v>0.50836899999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>239.328692907852</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ref="F28:F30" si="0">E28-200</f>
+        <v>39.328692907852002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>0.856*60</f>
         <v>51.36</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>239.99507666993901</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>39.99507666993901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
+      </c>
+      <c r="E30">
+        <v>240.37691861462</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>40.376918614619996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f>AVERAGE(E27:E30)-200</f>
+        <v>40.230905569828764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f>(50-E31)*0.05</f>
+        <v>0.48845472150856184</v>
       </c>
     </row>
   </sheetData>
@@ -950,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF118417-564F-4D5E-8DE4-BD58EAF3ED24}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,7 +1307,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1654,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
